--- a/db/All_product.xlsx
+++ b/db/All_product.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="best-seller" sheetId="1" r:id="rId1"/>
     <sheet name="laptop-table-mobile" sheetId="2" r:id="rId2"/>
+    <sheet name="PC-Server" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
   <si>
     <t>Mã SP: AIHP0336</t>
   </si>
@@ -262,13 +263,130 @@
   </si>
   <si>
     <t>15.790.000 đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã SP: AIHP0329 </t>
+  </si>
+  <si>
+    <t>Máy tính để bàn HP AIO 24-cb1025d 7H3Z5PA (Intel Core i5-1235U | 8 GB | 512 GB | Intel Iris Xe | 23.8 inch FHD | Win 11 | Trắng</t>
+  </si>
+  <si>
+    <t>19.290.000 đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã SP: PCIT0059 </t>
+  </si>
+  <si>
+    <t>PC Intel NUC 11 Performance L6 RNUC11PAHI30Z00 - RNUC11PAHI30Z0099AW96 (i3-1115G4/Intel Core UHD Graphics/Wi-Fi 6+Bluetooth)</t>
+  </si>
+  <si>
+    <t>7.590.000 đ</t>
+  </si>
+  <si>
+    <t>7.249.000 đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã SP: PCHP0406 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máy Tính Để Bàn Đồng Bộ HP Pavilion TP01-3008d 6K7A9PA (Core™ i5-12400 | 8GB | 256GB | Intel® UHD | Win 11) </t>
+  </si>
+  <si>
+    <t>12.900.000 đ</t>
+  </si>
+  <si>
+    <t>11.990.000 đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã SP: PCDE0612 </t>
+  </si>
+  <si>
+    <t>Máy tính đồng bộ để bàn DELL INSPIRON 3020 (I7 13700/ 16GB RAM/ 512GB SSD _1TB HDD/ VGA Geforce RTX 3050 8Gb DDR6/ WL+BT/ K+M/ WIN11/ 1yr) _MTI71028W1-16G-512G+1T</t>
+  </si>
+  <si>
+    <t>34.990.000 đ</t>
+  </si>
+  <si>
+    <t>33.450.000 đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã SP: PCHP0433 </t>
+  </si>
+  <si>
+    <t>Máy tính để bàn đồng bộ HP Pro 280 G9 SFF 72K92PA (Core i5-12500 | 8GB | 256GB SSD | Wlan ac+BT | KB &amp; M | Win11 Home 64 | 1Yr)</t>
+  </si>
+  <si>
+    <t>13.650.000 đ</t>
+  </si>
+  <si>
+    <t>12.250.000 đ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã SP: PCAPAMD2. </t>
+  </si>
+  <si>
+    <t>PC Build for Workstation - PCAP WS1 (CPU Ryzen 9-7900X | 16GB RAM DDR5 | RTX 3060 12GB | SSD 512GB | 750W PSU | Tản nhiệt nước ARGB 360)</t>
+  </si>
+  <si>
+    <t>39.999.000 đ</t>
+  </si>
+  <si>
+    <t>34.149.000 đ</t>
+  </si>
+  <si>
+    <t>Mã SP: PCAPT0077</t>
+  </si>
+  <si>
+    <t>PCAP AMD Red Team 4 (AMD Ryzen 5 7600 | A620M | 16GB | 650W | 500GB | RX 6500XT)</t>
+  </si>
+  <si>
+    <t>18.999.000 đ</t>
+  </si>
+  <si>
+    <t>15.899.000 đ</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Mã SP: PCAPTD1</t>
+  </si>
+  <si>
+    <t>PCAP Trading Full Combo KIT 2 Monitor - Case máy tính PC Trading 2 màn hình giao dịch chứng khoán, cổ phiếu, Forex,chứng khoán , tiền ảo , giám sát camera, dành cho Trader</t>
+  </si>
+  <si>
+    <t>18.900.000 đ</t>
+  </si>
+  <si>
+    <t>16.790.000 đ</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +431,25 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFCE0707"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFE3E3E3"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -335,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,6 +492,15 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -920,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1117,4 +1263,194 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="118.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>